--- a/Project4/type.xlsx
+++ b/Project4/type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>rule_or</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>기타</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -108,9 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -418,15 +424,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -506,7 +512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -515,6 +521,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
